--- a/analises/2023/analise_descritiva/dados/sint_resumo_por_origem_modalidade_2023.xlsx
+++ b/analises/2023/analise_descritiva/dados/sint_resumo_por_origem_modalidade_2023.xlsx
@@ -34,7 +34,7 @@
     <t>taxa_sucesso</t>
   </si>
   <si>
-    <t>valor_sucesso</t>
+    <t>arrecadado_sucesso</t>
   </si>
   <si>
     <t>media_sucesso</t>

--- a/analises/2023/analise_descritiva/dados/sint_resumo_por_origem_modalidade_2023.xlsx
+++ b/analises/2023/analise_descritiva/dados/sint_resumo_por_origem_modalidade_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>geral_modalidade</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>max_sucesso</t>
+  </si>
+  <si>
+    <t>apoio_medio</t>
+  </si>
+  <si>
+    <t>contribuicoes</t>
+  </si>
+  <si>
+    <t>media_contribuicoes</t>
   </si>
   <si>
     <t>aon</t>
@@ -425,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,7 +449,7 @@
     <col min="11" max="11" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -474,13 +483,22 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>1335</v>
@@ -489,10 +507,10 @@
         <v>830</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1">
-        <v>0.6217228464419475</v>
+        <v>62.17228464419475</v>
       </c>
       <c r="G2" s="2">
         <v>24063279.82732303</v>
@@ -509,13 +527,22 @@
       <c r="K2" s="2">
         <v>679297.6600721752</v>
       </c>
+      <c r="L2">
+        <v>91.30338044842225</v>
+      </c>
+      <c r="M2">
+        <v>263553</v>
+      </c>
+      <c r="N2">
+        <v>317.533734939759</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -524,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003405994550408719</v>
+        <v>0.3405994550408719</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -544,13 +571,22 @@
       <c r="K3" s="2">
         <v>0</v>
       </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>1463</v>
@@ -559,10 +595,10 @@
         <v>1383</v>
       </c>
       <c r="E4" s="1">
-        <v>0.9965940054495913</v>
+        <v>99.65940054495913</v>
       </c>
       <c r="F4" s="1">
-        <v>0.9453178400546821</v>
+        <v>94.53178400546821</v>
       </c>
       <c r="G4" s="2">
         <v>18362131.9375591</v>
@@ -579,13 +615,22 @@
       <c r="K4" s="2">
         <v>708972.7845446636</v>
       </c>
+      <c r="L4">
+        <v>90.1669167946294</v>
+      </c>
+      <c r="M4">
+        <v>203646</v>
+      </c>
+      <c r="N4">
+        <v>147.2494577006508</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>627</v>
@@ -594,10 +639,10 @@
         <v>137</v>
       </c>
       <c r="E5" s="1">
-        <v>0.9166666666666666</v>
+        <v>91.66666666666666</v>
       </c>
       <c r="F5" s="1">
-        <v>0.2185007974481659</v>
+        <v>21.85007974481659</v>
       </c>
       <c r="G5" s="2">
         <v>39550.43984210649</v>
@@ -614,13 +659,22 @@
       <c r="K5" s="2">
         <v>5087.076865717208</v>
       </c>
+      <c r="L5">
+        <v>19.17132323902399</v>
+      </c>
+      <c r="M5">
+        <v>2063</v>
+      </c>
+      <c r="N5">
+        <v>15.05839416058394</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>57</v>
@@ -629,10 +683,10 @@
         <v>15</v>
       </c>
       <c r="E6" s="1">
-        <v>0.08333333333333333</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="F6" s="1">
-        <v>0.2631578947368421</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="G6" s="2">
         <v>3636.517912678314</v>
@@ -648,6 +702,15 @@
       </c>
       <c r="K6" s="2">
         <v>538.4389998789497</v>
+      </c>
+      <c r="L6">
+        <v>25.0794338805401</v>
+      </c>
+      <c r="M6">
+        <v>145</v>
+      </c>
+      <c r="N6">
+        <v>9.666666666666666</v>
       </c>
     </row>
   </sheetData>
